--- a/Data/aearep-801/candidatepackages.xlsx
+++ b/Data/aearep-801/candidatepackages.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -31,9 +28,6 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>sq</t>
   </si>
   <si>
@@ -43,9 +37,6 @@
     <t>python</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
@@ -55,15 +46,6 @@
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>polar</t>
   </si>
   <si>
@@ -85,9 +67,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-801</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-801/replication_files/data_processing/analysis</t>
   </si>
   <si>
@@ -130,18 +109,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-801/replication_files/data_processing/dofiles/table2dta</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-801/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>readme_run_analysis.do</t>
   </si>
   <si>
@@ -194,9 +164,6 @@
   </si>
   <si>
     <t>table2dta.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -240,7 +207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -248,13 +215,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -262,7 +229,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -274,7 +241,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -286,7 +253,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -298,10 +265,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>525</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D5"/>
     </row>
@@ -310,10 +277,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D6"/>
     </row>
@@ -322,10 +289,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>563</v>
+        <v>885</v>
       </c>
       <c r="C7">
-        <v>0.18667109310626984</v>
+        <v>0.29256197810173035</v>
       </c>
       <c r="D7"/>
     </row>
@@ -334,10 +301,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>566</v>
+        <v>1564</v>
       </c>
       <c r="C8">
-        <v>0.18766577541828156</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D8"/>
     </row>
@@ -346,10 +313,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>910</v>
+        <v>1767</v>
       </c>
       <c r="C9">
-        <v>0.3017241358757019</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D9"/>
     </row>
@@ -358,10 +325,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1124</v>
+        <v>1796</v>
       </c>
       <c r="C10">
-        <v>0.37267905473709106</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D10"/>
     </row>
@@ -370,10 +337,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1565</v>
+        <v>2363</v>
       </c>
       <c r="C11">
-        <v>0.51889920234680176</v>
+        <v>0.78115701675415039</v>
       </c>
       <c r="D11"/>
     </row>
@@ -382,10 +349,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1755</v>
+        <v>2806</v>
       </c>
       <c r="C12">
-        <v>0.58189654350280762</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D12"/>
     </row>
@@ -394,84 +361,12 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1793</v>
+        <v>2977</v>
       </c>
       <c r="C13">
-        <v>0.59449601173400879</v>
+        <v>0.98413223028182983</v>
       </c>
       <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1798</v>
-      </c>
-      <c r="C14">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1817</v>
-      </c>
-      <c r="C15">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1859</v>
-      </c>
-      <c r="C16">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2137</v>
-      </c>
-      <c r="C17">
-        <v>0.70855438709259033</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2367</v>
-      </c>
-      <c r="C18">
-        <v>0.78481429815292358</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2989</v>
-      </c>
-      <c r="C19">
-        <v>0.99104773998260498</v>
-      </c>
-      <c r="D19"/>
     </row>
   </sheetData>
 </worksheet>
@@ -479,183 +374,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
